--- a/sessions/data/Part_I/Congressional_Bills/dinamic/Congressional_Bills_n_3.xlsx
+++ b/sessions/data/Part_I/Congressional_Bills/dinamic/Congressional_Bills_n_3.xlsx
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06591/2023-CR</t>
+          <t>Proyecto de Ley 06607/2023-CR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fecha de Presentación05/12/2023</t>
+          <t>Fecha de Presentación06/12/2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DEROGA EL DECRETO LEGISLATIVO 1589, DECRETO LEGISLATIVO QUE MODIFICA EL CÓDIGO PENAL, PARA GARANTIZAR LA SEGURIDAD Y TRANQUILIDAD PÚBLICA; Y RESTITUYE LA VIGENCIA DE LAS NORMAS DEROGADAS Y MODIFICADAS POR DICHO DECRETO</t>
+          <t>TítuloLEY QUE CREA EL REGISTRO DE MAQUINARIA PESADA A CARGO DEL MINISTERIO DE ENERGÍA Y MINAS EN LAS ZONAS MINERAS DE LOS DEPARTAMENTOS DE MADRE DE DIOS, UCAYALI Y PUNO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,24 +493,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AutoresTaipe Coronado, María Elizabeth Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
+          <t>AutoresWilliams Zapata, José Daniel Córdova Lobatón, María Jessica Amuruz Dulanto, Yessica Rosselli ver más...</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06590/2023-CR</t>
+          <t>Proyecto de Ley 06606/2023-CR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fecha de Presentación05/12/2023</t>
+          <t>Fecha de Presentación06/12/2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE CREA LA UNIDAD DE GESTIÓN DE RIESGO DE DESASTRE DE ORIGEN HIDROCLIMÁTICO PARA CUENCAS HIDROGRÁFICAS A NIVEL NACIONAL</t>
+          <t>TítuloLEY QUE FORTALECE LA COMISIÓN MULTISECTORIAL DE NATURALEZA PERMANENTE CON EL OBJETO DE REALIZAR EL SEGUIMIENTO AL DESARROLLO SOCIAL Y ECONÓMICO, FORMALIZACIÓN DE LA MINERÍA Y RECUPERACIÓN DEL MEDIO AMBIENTE EN LOS DEPARTAMENTOS DE MADRE DE DIOS, UCAYALI Y PUNO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -525,24 +525,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AutoresCiccia Vásquez, Miguel Ángel Montoya Manrique, Jorge Carlos Padilla Romero, Javier Rommel ver más...</t>
+          <t>AutoresWilliams Zapata, José Daniel Córdova Lobatón, María Jessica Cavero Alva, Alejandro Enrique ver más...</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06589/2023-CR</t>
+          <t>Proyecto de Ley 06605/2023-CR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fecha de Presentación05/12/2023</t>
+          <t>Fecha de Presentación06/12/2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TítuloLEY DE INTERPRETACIÓN AUTÉNTICA DEL ARTICULO 1 DE LA LEY 31751</t>
+          <t>TítuloLEY QUE DECLARA DE PRIORIDAD NACIONAL Y ATENCIÓN PREFERENTE EL DESARROLLO ECONÓMICO, SOCIAL Y LA PACIFICACIÓN DEL VALLE DE LOS RÍOS APURÍMAC, ENE Y MANTARO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -557,24 +557,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AutoresCruz Mamani, Flavio Cerrón Rojas, Waldemar José Agüero Gutiérrez, María Antonieta ver más...</t>
+          <t>AutoresFlores Ramírez, Alex Randu Quito Sarmiento, Bernardo Jaime Pariona Sinche, Alfredo ver más...</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06588/2023-CR</t>
+          <t>Proyecto de Ley 06604/2023-CR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fecha de Presentación05/12/2023</t>
+          <t>Fecha de Presentación06/12/2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL EL CAMBIO DE DENOMINACIÓN DEL "MINISTERIO DE LA MUJER Y POBLACIONES VULNERABLES" POR EL DE "MINISTERIO DE FAMILIA, INFANCIA, ADULTO MAYOR Y PERSONAS CON DISCAPACIDAD"</t>
+          <t>TítuloLEY QUE INCORPORA AL DISTRITO DE UNIÓN PROGRESO Y ANCHIHUAY A LA LEY N°27037, LEY DE PROMOCIÓN DE LA INVERSIÓN EN LA AMAZON ÍA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -589,24 +589,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AutoresJáuregui Martínez de Aguayo, María de los Milagros Jackeline Ciccia Vásquez, Miguel Ángel Cueto Aservi, José Ernesto ver más...</t>
+          <t>AutoresFlores Ramírez, Alex Randu Quito Sarmiento, Bernardo Jaime Pariona Sinche, Alfredo ver más...</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06587/2023-CR</t>
+          <t>Proyecto de Ley 06603/2023-CR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fecha de Presentación05/12/2023</t>
+          <t>Fecha de Presentación06/12/2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TítuloLEY DE RECONOCIMIENTO Y NOMBRAMIENTO A LOS HÉROES DE LA PANDEMIA - PERSONAL DE SALUD EX CAS COVID DE MINISTERIO DE SALUD Y GOBIERNOS REGIONALES</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY 27972 LEY ORGÁNICA DE MUNICIPALIDADES Y OPTIMIZA LAS COMPETENCIAS INSTITUCIONALES DE LOS CENTROS POBLADOS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,24 +621,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AutoresCortez Aguirre, Isabel Echeverría Rodríguez, Hamlet Bazán Calderón, Diego Alonso Fernando ver más...</t>
+          <t>AutoresFlores Ramírez, Alex Randu Quito Sarmiento, Bernardo Jaime Pariona Sinche, Alfredo ver más...</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06586/2023-CR</t>
+          <t>Proyecto de Ley 06602/2023-CR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fecha de Presentación05/12/2023</t>
+          <t>Fecha de Presentación06/12/2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE CREA LA RED COMUNITARIA DE SEGURIDAD ESCOLAR PUBLICA</t>
+          <t>TítuloLEY QUE DECLARA EL 7 DE DICIEMBRE COMO DÍA NACIONAL DE LOS MÁRTIRES DE LA DEMOCRACIA Y LA LUCHA SOCIAL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -653,29 +653,29 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AutoresParedes Gonzales, Alex Antonio Gutiérrez Ticona, Paul Silvio Vásquez Vela, Lucinda ver más...</t>
+          <t>AutoresBellido Ugarte, Guido Varas Meléndez, Elías Marcial Coayla Juárez, Jorge Samuel</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06585/2023-CR</t>
+          <t>Proyecto de Ley 06601/2023-CR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fecha de Presentación05/12/2023</t>
+          <t>Fecha de Presentación06/12/2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TítuloRESOLUCIÓN LEGISLATIVA DEL CONGRESO CON LA QUE SE IMPONE A LA CONGRESISTA MARÍA DEL PILAR CORDERO JON TAY LA SANCIÓN DE SUSPENSIÓN EN EL EJERCICIO DEL CARGO Y DESCUENTO DE SUS HABERES POR CIENTO VEINTE DÍAS DE LEGISLATURA</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CONSTRUCCIÓN E IMPLEMENTACIÓN DEL ESTADIO VÍCTOR MONTOYA SEGURA, UBICADO EN LA PROVINCIA DE JAÉN DEPARTAMENTO DE CAJAMARCA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Estado ProcesalPublicada en el Diario Oficial El Peruano</t>
+          <t>Estado ProcesalEN COMISIÓN</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,24 +685,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AutoresBazán Calderón, Diego Alonso Fernando</t>
+          <t>AutoresMonteza Facho, Silvia María Paredes Fonseca, Karol Ivett Mori Celis, Juan Carlos ver más...</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06584/2023-CR</t>
+          <t>Proyecto de Ley 06600/2023-CR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fecha de Presentación05/12/2023</t>
+          <t>Fecha de Presentación06/12/2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE FORTALECE LA JUSTICIA Y LUCHA CONTRA LA CORRUPCION</t>
+          <t>TítuloLEY QUE GARANTIZA EL ACCESO Y LA CALIDAD DEL AGUA POTABLE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -717,24 +717,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AutoresDoroteo Carbajo, Raúl Felipe Espinoza Vargas, Jhaec Darwin Portero López, Hilda Marleny ver más...</t>
+          <t>AutoresPortero López, Hilda Marleny Soto Palacios, Wilson Espinoza Vargas, Jhaec Darwin ver más...</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06583/2023-CR</t>
+          <t>Proyecto de Ley 06599/2023-CR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fecha de Presentación05/12/2023</t>
+          <t>Fecha de Presentación06/12/2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE FORTALECE LA PREVENCIÓN DEL SUICIDIO EN NIÑOS Y ADOLESCENTES Y MODIFICA LA LEY 30947, LEY DE SALUD MENTAL</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL LA CREACIÓN DE LA UNIVERSIDAD NACIONAL DE TALARA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -749,24 +749,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AutoresOlivos Martínez, Vivian Moyano Delgado, Martha Lupe Lizarzaburu Lizarzaburu, Juan Carlos Martin ver más...</t>
+          <t>AutoresJuárez Calle, Heidy Lisbeth Paredes Castro, Francis Jhasmina Zeballos Madariaga, Carlos Javier ver más...</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06582/2023-CR</t>
+          <t>Proyecto de Ley 06598/2023-CR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fecha de Presentación05/12/2023</t>
+          <t>Fecha de Presentación06/12/2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE FACULTA A LOS GOBIERNOS REGIONALES A CELEBRAR CONVENIOS CON LOS COMITÉS REGIONALES DE EDUCACIÓN NO CATÓLICA EN EL PERÚ</t>
+          <t>TítuloLEY QUE CREA EL REGISTRO DE PERSONAS AFECTADAS POR EL DERRAME DE HIDROCARBUROS</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -781,24 +781,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AutoresPadilla Romero, Javier Rommel Jáuregui Martínez de Aguayo, María de los Milagros Jackeline Ciccia Vásquez, Miguel Ángel ver más...</t>
+          <t>AutoresSalhuana Cavides, Eduardo Chiabra León, Roberto Enrique Trigozo Reátegui, Cheryl ver más...</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06581/2023-CR</t>
+          <t>Proyecto de Ley 06597/2023-CR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fecha de Presentación05/12/2023</t>
+          <t>Fecha de Presentación06/12/2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PROMUEVE EL EFECTIVO DESARROLLO PRODUCTIVO Y FORMALIZACIÓN DE LA ACTIVIDAD ARTESANAL A TRAVÉS DE MICRO Y PEQUEÑAS EMPRESAS (MYPES).</t>
+          <t>TítuloLEY DE LUCHA CONTRA LA INSEGURIDAD CIUDADANA QUE PLANTEA LA AMPLIACIÓN DEL TIEMPO DEL DELITO DE FLAGRANCIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -813,24 +813,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AutoresMorante Figari, Jorge Alberto Aguinaga Recuenco, Alejandro Aurelio Infantes Castañeda, Mery Eliana ver más...</t>
+          <t>AutoresOlivos Martínez, Vivian Chacón Trujillo, Nilza Merly Revilla Villanueva, César Manuel ver más...</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06580/2023-CR</t>
+          <t>Proyecto de Ley 06596/2023-CR</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fecha de Presentación05/12/2023</t>
+          <t>Fecha de Presentación06/12/2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DISPONE QUE LOS ESTABLECIMIENTOS PÚBLICOS Y PRIVADOS DE CONCURRENCIA MASIVA DE PERSONAS CUENTEN CON SISTEMAS DETECTORES DE ARMAS, A FIN DE EVITAR EL INGRESO DE ARMAS DE FUEGO Y OTROS ELEMENTOS QUE PONGAN EN PELIGRO LA VIDA Y LA INTEGRIDAD FÍSICA DE LAS PERSONAS</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL EL RECONOCIMIENTO COMO PATRIMONIO CULTURAL DE LA NACIÓN A LA DANZA LOS VIAJEROS DE CHANTA UMACA DEL DISTRITO DE ANDARAPA, PROVINCIA DE ANDAHUAYLAS DEL DEPARTAMENTO DE APURÍMAC</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -845,24 +845,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Medina Minaya, Esdras Ricardo ver más...</t>
+          <t>AutoresTaipe Coronado, María Elizabeth Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06579/2023-CR</t>
+          <t>Proyecto de Ley 06595/2023-CR</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fecha de Presentación05/12/2023</t>
+          <t>Fecha de Presentación06/12/2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DEROGA EL DECRETO LEGISLATIVO 1589, DECRETO LEGISLATIVO QUE MODIFICA EL CÓDIGO PENAL, APROBADO POR DECRETO LEGISLATIVO 635, PARA GARANTIZAR LA SEGURIDAD Y TRANQUILIDAD PÚBLICA</t>
+          <t>TítuloLEY QUE CREA EL REGISTRO DE RESIDENTES DISTRITALES Y DE CENTROS POBLADOS EN EL MINISTERIO DE CULTURA PARA LA PROMOCIÓN CULTURAL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -877,24 +877,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AutoresPariona Sinche, Alfredo Robles Araujo, Silvana Emperatriz Quito Sarmiento, Bernardo Jaime ver más...</t>
+          <t>AutoresTaipe Coronado, María Elizabeth Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06578/2023-CR</t>
+          <t>Proyecto de Ley 06594/2023-CR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fecha de Presentación04/12/2023</t>
+          <t>Fecha de Presentación06/12/2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE GARANTIZA LA EJECUCIÓN DEL PRESUPUESTO REGIONAL Y LOCAL EN MATERIA DE SEGURIDAD CIUDADANA, ESTABLECIENDO RESPONSABILIDADES POR SU INCUMPLIMIENTO</t>
+          <t>TítuloLEY QUE MODIFICA LOS ARTÍCULOS 52 Y 62 DEL DECRETO LEGISLATIVO N° 635 DEL CODIGO PENAL A EFECTO DE REGULAR EXCEPCIONES EN LOS CASOS DE LOS DELITOS DE AGRESIONES EN CONTRA DE LA MUJERES O INTEGRANTES DEL GRUPO FAMILIAR Y POR EL DELITO DE LESIONES</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -909,24 +909,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AutoresChirinos Venegas, Patricia Rosa Williams Zapata, José Daniel Cavero Alva, Alejandro Enrique ver más...</t>
+          <t>AutoresAlva Prieto, María del Carmen Arriola Tueros, José Alberto Mori Celis, Juan Carlos ver más...</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06577/2023-CR</t>
+          <t>Proyecto de Ley 06593/2023-CR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fecha de Presentación04/12/2023</t>
+          <t>Fecha de Presentación06/12/2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA EN EMERGENCIA LA OBRA: "SECTORIZACIÓN DEL SISTEMA DE AGUA POTABLE Y ALCANTARILLADO DE LA PARTE ALTA MATRIZ PRÓCERES DE CHORRILLOS".</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CONSTRUCCIÓN DE TELEFÉRICOS Y SERVICIOS COMPLEMENTARIOS EN CHIMBOTE, CALLEJÓN DE HUAYLAS, ZONA DE LOS CONCHUCOS Y OTROS SECTORES CON POTENCIAL TURÍSTICO EN ANCASH</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -941,24 +941,24 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AutoresCerrón Rojas, Waldemar José Montalvo Cubas, Segundo Toribio Taipe Coronado, María Elizabeth ver más...</t>
+          <t>AutoresCamones Soriano, Lady Mercedes Salhuana Cavides, Eduardo Acuña Peralta, María Grimaneza ver más...</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06576/2023-CR</t>
+          <t>Proyecto de Ley 06592/2023-CR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fecha de Presentación04/12/2023</t>
+          <t>Fecha de Presentación06/12/2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY N° 30949, LEY QUE PREMIA A LOS ATLETAS MEDALLISTAS EN LOS XVIII JUEGOS PANAMERICANOS Y VI JUEGOS PARAPANAMERICANOS LIMA 2019</t>
+          <t>TítuloLEY QUE EXCLUYE A ESSALUD DE LOS ALCANCES DE FONAFE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -973,24 +973,24 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AutoresLizarzaburu Lizarzaburu, Juan Carlos Martin Infantes Castañeda, Mery Eliana Revilla Villanueva, César Manuel ver más...</t>
+          <t>AutoresBurgos Oliveros, Juan Bartolomé Ugarte Mamani, Jhakeline Katy Acuña Peralta, Segundo Héctor ver más...</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06575/2023-CR</t>
+          <t>Proyecto de Ley 06591/2023-CR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fecha de Presentación04/12/2023</t>
+          <t>Fecha de Presentación05/12/2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY N° 29763, LEY FORESTAL Y DE FAUNA SILVESTRE, A FIN DE ASIGNAR FUNCIONES EN MATERIA DE INCENDIOS FORESTALES</t>
+          <t>TítuloLEY QUE DEROGA EL DECRETO LEGISLATIVO 1589, DECRETO LEGISLATIVO QUE MODIFICA EL CÓDIGO PENAL, PARA GARANTIZAR LA SEGURIDAD Y TRANQUILIDAD PÚBLICA; Y RESTITUYE LA VIGENCIA DE LAS NORMAS DEROGADAS Y MODIFICADAS POR DICHO DECRETO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1005,24 +1005,24 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AutoresParedes Fonseca, Karol Ivett Monteza Facho, Silvia María Alva Prieto, María del Carmen</t>
+          <t>AutoresTaipe Coronado, María Elizabeth Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06574/2023-CR</t>
+          <t>Proyecto de Ley 06590/2023-CR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fecha de Presentación04/12/2023</t>
+          <t>Fecha de Presentación05/12/2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 261 DEL DECRETO LEGISLATIVO N° 957 NUEVO CODIGO PROCESAL PENAL A EFECTO DE EVITAR LA CADUCIDAD DE LAS REQUISITORIAS</t>
+          <t>TítuloLEY QUE CREA LA UNIDAD DE GESTIÓN DE RIESGO DE DESASTRE DE ORIGEN HIDROCLIMÁTICO PARA CUENCAS HIDROGRÁFICAS A NIVEL NACIONAL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AutoresAlva Prieto, María del Carmen Arriola Tueros, José Alberto Monteza Facho, Silvia María ver más...</t>
+          <t>AutoresCiccia Vásquez, Miguel Ángel Montoya Manrique, Jorge Carlos Padilla Romero, Javier Rommel ver más...</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06573/2023-CR</t>
+          <t>Proyecto de Ley 06589/2023-CR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fecha de Presentación04/12/2023</t>
+          <t>Fecha de Presentación05/12/2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE INCORPORA COMO CIRCUNSTANCIA AGRAVANTE LA UTILIZACIÓN DE LA INTELIGENCIA ARTIFICIAL PARA LA COMISIÓN DE DELITOS</t>
+          <t>TítuloLEY DE INTERPRETACIÓN AUTÉNTICA DEL ARTICULO 1 DE LA LEY 31751</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1069,24 +1069,24 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AutoresAlva Prieto, María del Carmen Arriola Tueros, José Alberto Mori Celis, Juan Carlos ver más...</t>
+          <t>AutoresCruz Mamani, Flavio Cerrón Rojas, Waldemar José Agüero Gutiérrez, María Antonieta ver más...</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06572/2023-CR</t>
+          <t>Proyecto de Ley 06588/2023-CR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fecha de Presentación04/12/2023</t>
+          <t>Fecha de Presentación05/12/2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE INCORPORA AL RÉGIMEN LABORAL DEL DECRETO LEGISLATIVO 728 A LOS TRABAJADORES DEL RENIEC QUE SE ENCUENTRAN BAJO EL RÉGIMEN DEL CAS CON CONTRATO A PLAZO INDETERMINADO</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL EL CAMBIO DE DENOMINACIÓN DEL "MINISTERIO DE LA MUJER Y POBLACIONES VULNERABLES" POR EL DE "MINISTERIO DE FAMILIA, INFANCIA, ADULTO MAYOR Y PERSONAS CON DISCAPACIDAD"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1101,24 +1101,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AutoresVergara Mendoza, Elvis Hernán Espinoza Vargas, Jhaec Darwin Flores Ancachi, Jorge Luis ver más...</t>
+          <t>AutoresJáuregui Martínez de Aguayo, María de los Milagros Jackeline Ciccia Vásquez, Miguel Ángel Cueto Aservi, José Ernesto ver más...</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06571/2023-CR</t>
+          <t>Proyecto de Ley 06587/2023-CR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fecha de Presentación04/12/2023</t>
+          <t>Fecha de Presentación05/12/2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LOS ARTÍCULOS 2 Y 6 DE LA LEY 28529, LEY DEL GUÍA DE TURISMO</t>
+          <t>TítuloLEY DE RECONOCIMIENTO Y NOMBRAMIENTO A LOS HÉROES DE LA PANDEMIA - PERSONAL DE SALUD EX CAS COVID DE MINISTERIO DE SALUD Y GOBIERNOS REGIONALES</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1133,24 +1133,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AutoresSoto Reyes, Alejandro Salhuana Cavides, Eduardo Julón Irigoín, Elva Edhit ver más...</t>
+          <t>AutoresCortez Aguirre, Isabel Echeverría Rodríguez, Hamlet Bazán Calderón, Diego Alonso Fernando ver más...</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06570/2023-CR</t>
+          <t>Proyecto de Ley 06586/2023-CR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fecha de Presentación01/12/2023</t>
+          <t>Fecha de Presentación05/12/2023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TítuloPROYECTO DE LEY QUE ADICIONA UN SEGUNDO PÁRRAFO EN EL ARTÍCULO 1 DE LA LEY 31096, LEY QUE PRECISA LOS ALCANCES DE LA LEY 28972, LEY QUE ESTABLECE LA FORMALIZACIÓN DEL TRANSPORTE TERRESTRE DE PASAJEROS EN AUTOMÓVILES COLECTIVOS</t>
+          <t>TítuloLEY QUE CREA LA RED COMUNITARIA DE SEGURIDAD ESCOLAR PUBLICA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1165,29 +1165,29 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AutoresMontalvo Cubas, Segundo Toribio Mita Alanoca, Isaac Gonza Castillo, Américo ver más...</t>
+          <t>AutoresParedes Gonzales, Alex Antonio Gutiérrez Ticona, Paul Silvio Vásquez Vela, Lucinda ver más...</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06569/2023-CR</t>
+          <t>Proyecto de Ley 06585/2023-CR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fecha de Presentación01/12/2023</t>
+          <t>Fecha de Presentación05/12/2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TítuloPROYECTO DE LEY QUE MODIFICA LOS ARTÍCULOS 1°, 2°, LA PRIMERA DISPOSICIÓN COMPLEMENTARIA FINAL Y SE ADICIONAN LOS ARTÍCULOS 8°, 9° Y 10° A LA LEY N° 31694 QUE ESTABLECE EL EMPADRONAMIENTO Y REGISTRO DE ARMAS DE FUEGO DE USO CIVIL</t>
+          <t>TítuloRESOLUCIÓN LEGISLATIVA DEL CONGRESO CON LA QUE SE IMPONE A LA CONGRESISTA MARÍA DEL PILAR CORDERO JON TAY LA SANCIÓN DE SUSPENSIÓN EN EL EJERCICIO DEL CARGO Y DESCUENTO DE SUS HABERES POR CIENTO VEINTE DÍAS DE LEGISLATURA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Estado ProcesalEN COMISIÓN</t>
+          <t>Estado ProcesalPublicada en el Diario Oficial El Peruano</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1197,24 +1197,24 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AutoresRospigliosi Capurro, Fernando Miguel Flores Ruiz, Víctor Seferino Moyano Delgado, Martha Lupe ver más...</t>
+          <t>AutoresBazán Calderón, Diego Alonso Fernando</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06568/2023-CR</t>
+          <t>Proyecto de Ley 06584/2023-CR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fecha de Presentación01/12/2023</t>
+          <t>Fecha de Presentación05/12/2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DEROGA LA LEY N° 28194, "LEY PARA LA LUCHA CONTRA LA EVASIÓN Y PARA LA FORMALIZACIÓN DE LA ECONOMÍA", PARA RESTITUIR LOS DERECHOS CONTITUCIONALES DE LOS CONTRIBUYENTES</t>
+          <t>TítuloLEY QUE FORTALECE LA JUSTICIA Y LUCHA CONTRA LA CORRUPCION</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1229,24 +1229,24 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AutoresAlva Rojas, Carlos Enrique</t>
+          <t>AutoresDoroteo Carbajo, Raúl Felipe Espinoza Vargas, Jhaec Darwin Portero López, Hilda Marleny ver más...</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06567/2023-CR</t>
+          <t>Proyecto de Ley 06583/2023-CR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fecha de Presentación01/12/2023</t>
+          <t>Fecha de Presentación05/12/2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY N° 31316, LEY DE PREVENCIÓN Y CONTROL DE LA CONTAMINACIÓN LUMÍNICA PARA PROMOVER LA INVERSIÓN ECOAMIGABLE</t>
+          <t>TítuloLEY QUE FORTALECE LA PREVENCIÓN DEL SUICIDIO EN NIÑOS Y ADOLESCENTES Y MODIFICA LA LEY 30947, LEY DE SALUD MENTAL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1261,24 +1261,24 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>AutoresAlegría García, Arturo Morante Figari, Jorge Alberto Flores Ruiz, Víctor Seferino ver más...</t>
+          <t>AutoresOlivos Martínez, Vivian Moyano Delgado, Martha Lupe Lizarzaburu Lizarzaburu, Juan Carlos Martin ver más...</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06566/2023-CR</t>
+          <t>Proyecto de Ley 06582/2023-CR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fecha de Presentación01/12/2023</t>
+          <t>Fecha de Presentación05/12/2023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE FACULTA A LOS AFILIADOS DE LOS FONDOS PRIVADOS DE PENSIONES EL RETIRO EXTRAORDINARIO DE HASTA 4 UIT</t>
+          <t>TítuloLEY QUE FACULTA A LOS GOBIERNOS REGIONALES A CELEBRAR CONVENIOS CON LOS COMITÉS REGIONALES DE EDUCACIÓN NO CATÓLICA EN EL PERÚ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1293,24 +1293,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AutoresCortez Aguirre, Isabel Sánchez Palomino, Roberto Helbert Bazán Narro, Sigrid Tesoro ver más...</t>
+          <t>AutoresPadilla Romero, Javier Rommel Jáuregui Martínez de Aguayo, María de los Milagros Jackeline Ciccia Vásquez, Miguel Ángel ver más...</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06565/2023-CR</t>
+          <t>Proyecto de Ley 06581/2023-CR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fecha de Presentación01/12/2023</t>
+          <t>Fecha de Presentación05/12/2023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL ARTICULO 67 Y SE INCORPORA LOS ARTÍCULOS 67-A Y 67-B A LA LEY 28091, LEY DEL SERVICIO DIPLOMÁTICO DE LA REPÚBLICA</t>
+          <t>TítuloLEY QUE PROMUEVE EL EFECTIVO DESARROLLO PRODUCTIVO Y FORMALIZACIÓN DE LA ACTIVIDAD ARTESANAL A TRAVÉS DE MICRO Y PEQUEÑAS EMPRESAS (MYPES).</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1325,24 +1325,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AutoresCerrón Rojas, Waldemar José Palacios Huamán, Margot Taipe Coronado, María Elizabeth ver más...</t>
+          <t>AutoresMorante Figari, Jorge Alberto Aguinaga Recuenco, Alejandro Aurelio Infantes Castañeda, Mery Eliana ver más...</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06564/2023-CR</t>
+          <t>Proyecto de Ley 06580/2023-CR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fecha de Presentación01/12/2023</t>
+          <t>Fecha de Presentación05/12/2023</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 45 DE LA LEY 30220, LEY UNIVERSITARIA</t>
+          <t>TítuloLEY QUE DISPONE QUE LOS ESTABLECIMIENTOS PÚBLICOS Y PRIVADOS DE CONCURRENCIA MASIVA DE PERSONAS CUENTEN CON SISTEMAS DETECTORES DE ARMAS, A FIN DE EVITAR EL INGRESO DE ARMAS DE FUEGO Y OTROS ELEMENTOS QUE PONGAN EN PELIGRO LA VIDA Y LA INTEGRIDAD FÍSICA DE LAS PERSONAS</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1357,24 +1357,24 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AutoresCerrón Rojas, Waldemar José Palacios Huamán, Margot Agüero Gutiérrez, María Antonieta ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Medina Minaya, Esdras Ricardo ver más...</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06563/2023-CR</t>
+          <t>Proyecto de Ley 06579/2023-CR</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fecha de Presentación01/12/2023</t>
+          <t>Fecha de Presentación05/12/2023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ESTABLECE ESPECIFICACIONES PARA CONDUCTORES Y PASAJEROS DE VEHÍCULOS MENORES MOTORIZADOS</t>
+          <t>TítuloLEY QUE DEROGA EL DECRETO LEGISLATIVO 1589, DECRETO LEGISLATIVO QUE MODIFICA EL CÓDIGO PENAL, APROBADO POR DECRETO LEGISLATIVO 635, PARA GARANTIZAR LA SEGURIDAD Y TRANQUILIDAD PÚBLICA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1389,24 +1389,24 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>AutoresBurgos Oliveros, Juan Bartolomé Ugarte Mamani, Jhakeline Katy Medina Minaya, Esdras Ricardo ver más...</t>
+          <t>AutoresPariona Sinche, Alfredo Robles Araujo, Silvana Emperatriz Quito Sarmiento, Bernardo Jaime ver más...</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06562/2023-CR</t>
+          <t>Proyecto de Ley 06578/2023-CR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fecha de Presentación01/12/2023</t>
+          <t>Fecha de Presentación04/12/2023</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERES NACIONAL Y NECESIDAD PÚBLICA LA CONSTRUCCIÓN, IMPLEMENTACIÓN Y EQUIPAMIENTO DE LA RESIDENCIA UNIVERSITARIA PARA ESTUDIANTES, DOCENTES Y ADMINISTRATIVOS EN TODAS LAS UNIVERSIDADES PÚBLICAS DEL PERÚ</t>
+          <t>TítuloLEY QUE GARANTIZA LA EJECUCIÓN DEL PRESUPUESTO REGIONAL Y LOCAL EN MATERIA DE SEGURIDAD CIUDADANA, ESTABLECIENDO RESPONSABILIDADES POR SU INCUMPLIMIENTO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1421,24 +1421,24 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>AutoresCerrón Rojas, Waldemar José Mita Alanoca, Isaac Palacios Huamán, Margot ver más...</t>
+          <t>AutoresChirinos Venegas, Patricia Rosa Williams Zapata, José Daniel Cavero Alva, Alejandro Enrique ver más...</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06561/2023-CR</t>
+          <t>Proyecto de Ley 06577/2023-CR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fecha de Presentación01/12/2023</t>
+          <t>Fecha de Presentación04/12/2023</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CREACIÓN DEL INSTITUTO DE IDIOMAS PLURINACIONAL DEL PERÚ A NIVEL NACIONAL</t>
+          <t>TítuloLEY QUE DECLARA EN EMERGENCIA LA OBRA: "SECTORIZACIÓN DEL SISTEMA DE AGUA POTABLE Y ALCANTARILLADO DE LA PARTE ALTA MATRIZ PRÓCERES DE CHORRILLOS".</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1453,24 +1453,24 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AutoresCerrón Rojas, Waldemar José Mita Alanoca, Isaac Palacios Huamán, Margot ver más...</t>
+          <t>AutoresCerrón Rojas, Waldemar José Montalvo Cubas, Segundo Toribio Taipe Coronado, María Elizabeth ver más...</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06560/2023-CR</t>
+          <t>Proyecto de Ley 06576/2023-CR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fecha de Presentación01/12/2023</t>
+          <t>Fecha de Presentación04/12/2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LOS ARTICULOS 63 Y 65 DE LA LEY 30220, LEY UNIVERSITARIA Y CREA EL VICERRECTORADO DE COOPERACIÓN Y RELACIONES INTERNACIONALES</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY N° 30949, LEY QUE PREMIA A LOS ATLETAS MEDALLISTAS EN LOS XVIII JUEGOS PANAMERICANOS Y VI JUEGOS PARAPANAMERICANOS LIMA 2019</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1485,24 +1485,24 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>AutoresCerrón Rojas, Waldemar José Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
+          <t>AutoresLizarzaburu Lizarzaburu, Juan Carlos Martin Infantes Castañeda, Mery Eliana Revilla Villanueva, César Manuel ver más...</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06559/2023-CR</t>
+          <t>Proyecto de Ley 06575/2023-CR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fecha de Presentación01/12/2023</t>
+          <t>Fecha de Presentación04/12/2023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL, NECESIDAD Y UTILIDAD PÚBLICA LA CREACIÓN DEL INSTITUTO SUPERIOR TECNOLÓGICO PÚBLICO "SAN ANTONIO", EN EL DISTRITO DE HUARANGO, PROVINCIA DE SAN IGNACIO EN CAJAMARCA</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY N° 29763, LEY FORESTAL Y DE FAUNA SILVESTRE, A FIN DE ASIGNAR FUNCIONES EN MATERIA DE INCENDIOS FORESTALES</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1517,24 +1517,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AutoresGonza Castillo, Américo Mita Alanoca, Isaac Montalvo Cubas, Segundo Toribio ver más...</t>
+          <t>AutoresParedes Fonseca, Karol Ivett Monteza Facho, Silvia María Alva Prieto, María del Carmen</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06558/2023-CR</t>
+          <t>Proyecto de Ley 06574/2023-CR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fecha de Presentación01/12/2023</t>
+          <t>Fecha de Presentación04/12/2023</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE APLICA EL GRILLETE ELECTRÓNICO PARA LA SEMILIBERTAD A LOS ADOLESCENTES INFRACTORES</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 261 DEL DECRETO LEGISLATIVO N° 957 NUEVO CODIGO PROCESAL PENAL A EFECTO DE EVITAR LA CADUCIDAD DE LAS REQUISITORIAS</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1549,24 +1549,24 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
+          <t>AutoresAlva Prieto, María del Carmen Arriola Tueros, José Alberto Monteza Facho, Silvia María ver más...</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06557/2023-CR</t>
+          <t>Proyecto de Ley 06573/2023-CR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fecha de Presentación01/12/2023</t>
+          <t>Fecha de Presentación04/12/2023</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY N° 30037, LEY QUE PREVIENE Y SANCIONA LA VIOLENCIA EN LOS ESPECTÁCULOS DEPORTIVOS, PARA FORTALECER LA PROTECCIÓN AL PÚBLICO ASISTENTE, ESTABLECIENDO CUALQUIER ACTO DE PROVOCACIÓN O INCITACIÓN A LA VIOLENCIA COMO FALTA GRAVE</t>
+          <t>TítuloLEY QUE INCORPORA COMO CIRCUNSTANCIA AGRAVANTE LA UTILIZACIÓN DE LA INTELIGENCIA ARTIFICIAL PARA LA COMISIÓN DE DELITOS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1581,24 +1581,24 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
+          <t>AutoresAlva Prieto, María del Carmen Arriola Tueros, José Alberto Mori Celis, Juan Carlos ver más...</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06556/2023-CR</t>
+          <t>Proyecto de Ley 06572/2023-CR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fecha de Presentación01/12/2023</t>
+          <t>Fecha de Presentación04/12/2023</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY 30754, LEY MARCO SOBRE CAMBIO CLIMÁTICO, PARA FORTALECER LA GESTIÓN DE LOS INCENDIOS FORESTALES, ESTABLECIENDO QUE EL MINISTERIO DEL AMBIENTE, EN COORDINACIÓN CON EL MINISTERIO DE DEFENSA, EL MINISTERIO DE DESARROLLO AGRARIO Y RIEGO, LOS GOBIERNOS REGIONALES Y GOBIERNOS LOCALES, GESTIONA LOS INCENDIOS FORESTALES</t>
+          <t>TítuloLEY QUE INCORPORA AL RÉGIMEN LABORAL DEL DECRETO LEGISLATIVO 728 A LOS TRABAJADORES DEL RENIEC QUE SE ENCUENTRAN BAJO EL RÉGIMEN DEL CAS CON CONTRATO A PLAZO INDETERMINADO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1613,24 +1613,24 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
+          <t>AutoresVergara Mendoza, Elvis Hernán Espinoza Vargas, Jhaec Darwin Flores Ancachi, Jorge Luis ver más...</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06555/2023-CR</t>
+          <t>Proyecto de Ley 06571/2023-CR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fecha de Presentación30/11/2023</t>
+          <t>Fecha de Presentación04/12/2023</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CREACIÓN DEL INSTITUTO SUPERIOR TECNOLÓGICO PÚBLICO LIVITACA, EN EL DISTRITO DE LIVITACA, PROVINCIA DE CHUMBIVILCAS DEL DEPARTAMENTO DE CUSCO</t>
+          <t>TítuloLEY QUE MODIFICA LOS ARTÍCULOS 2 Y 6 DE LA LEY 28529, LEY DEL GUÍA DE TURISMO</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1645,24 +1645,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AutoresBellido Ugarte, Guido Balcázar Zelada, José María Coayla Juárez, Jorge Samuel ver más...</t>
+          <t>AutoresSoto Reyes, Alejandro Salhuana Cavides, Eduardo Julón Irigoín, Elva Edhit ver más...</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06554/2023-CR</t>
+          <t>Proyecto de Ley 06570/2023-CR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fecha de Presentación30/11/2023</t>
+          <t>Fecha de Presentación01/12/2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE ESTABLECE LA CUOTA MÍNIMA OBLIGATORIA DE MUJERES EN EL REGIMEN DE CONSTRUCCIÓN CIVIL</t>
+          <t>TítuloPROYECTO DE LEY QUE ADICIONA UN SEGUNDO PÁRRAFO EN EL ARTÍCULO 1 DE LA LEY 31096, LEY QUE PRECISA LOS ALCANCES DE LA LEY 28972, LEY QUE ESTABLECE LA FORMALIZACIÓN DEL TRANSPORTE TERRESTRE DE PASAJEROS EN AUTOMÓVILES COLECTIVOS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1677,56 +1677,56 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AutoresQuiroz Barboza, Segundo Teodomiro Tacuri Valdivia, Germán Adolfo Medina Hermosilla, Elizabeth Sara ver más...</t>
+          <t>AutoresMontalvo Cubas, Segundo Toribio Mita Alanoca, Isaac Gonza Castillo, Américo ver más...</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06553/2023-PE</t>
+          <t>Proyecto de Ley 06569/2023-CR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fecha de Presentación30/11/2023</t>
+          <t>Fecha de Presentación01/12/2023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TítuloRESOLUCIÓN LEGISLATIVA QUE AUTORIZA EL INGRESO DE PERSONAL MILITAR EXTRANJERO CON ARMAS DE GUERRA AL TERRITORIO DE LA REPÚBLICA DEL PERÚ</t>
+          <t>TítuloPROYECTO DE LEY QUE MODIFICA LOS ARTÍCULOS 1°, 2°, LA PRIMERA DISPOSICIÓN COMPLEMENTARIA FINAL Y SE ADICIONAN LOS ARTÍCULOS 8°, 9° Y 10° A LA LEY N° 31694 QUE ESTABLECE EL EMPADRONAMIENTO Y REGISTRO DE ARMAS DE FUEGO DE USO CIVIL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Estado ProcesalAutógrafa</t>
+          <t>Estado ProcesalEN COMISIÓN</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ProponentePoder Ejecutivo</t>
+          <t>ProponenteCongreso</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Autores</t>
+          <t>AutoresRospigliosi Capurro, Fernando Miguel Flores Ruiz, Víctor Seferino Moyano Delgado, Martha Lupe ver más...</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06552/2023-CR</t>
+          <t>Proyecto de Ley 06568/2023-CR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fecha de Presentación30/11/2023</t>
+          <t>Fecha de Presentación01/12/2023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LA LEY N° 30299, LEY DE ARMAS DE FUEGO, MUNICIONES, EXPLOSIVOS, PRODUCTOS PIROTÉCNICOS Y MATERIALES RELACIONADOS DE USO CIVIL</t>
+          <t>TítuloLEY QUE DEROGA LA LEY N° 28194, "LEY PARA LA LUCHA CONTRA LA EVASIÓN Y PARA LA FORMALIZACIÓN DE LA ECONOMÍA", PARA RESTITUIR LOS DERECHOS CONTITUCIONALES DE LOS CONTRIBUYENTES</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1741,24 +1741,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>AutoresCamones Soriano, Lady Mercedes Salhuana Cavides, Eduardo Trigozo Reátegui, Cheryl ver más...</t>
+          <t>AutoresAlva Rojas, Carlos Enrique</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06551/2023-CR</t>
+          <t>Proyecto de Ley 06567/2023-CR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fecha de Presentación30/11/2023</t>
+          <t>Fecha de Presentación01/12/2023</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE INCORPORA UNA DISPOSICIÓN COMPLEMENTARIA FINAL EN LA LEY N° 31539, LEY QUE AUTORIZA, EXCEPCIONALMENTE Y POR ÚNICA VEZ, EN EL MARCO DE LA EMERGENCIA SANITARIA, EL CAMBIO DE CONTRATO CAS-COVID A CONTRATO CAS AL PERSONAL ASISTENCIAL EN EL SECTOR SALUD</t>
+          <t>TítuloLEY QUE MODIFICA LA LEY N° 31316, LEY DE PREVENCIÓN Y CONTROL DE LA CONTAMINACIÓN LUMÍNICA PARA PROMOVER LA INVERSIÓN ECOAMIGABLE</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1773,24 +1773,24 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>AutoresParedes Castro, Francis Jhasmina Elías Ávalos, José Luis Wong Pujada, Enrique ver más...</t>
+          <t>AutoresAlegría García, Arturo Morante Figari, Jorge Alberto Flores Ruiz, Víctor Seferino ver más...</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06550/2023-CR</t>
+          <t>Proyecto de Ley 06566/2023-CR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fecha de Presentación29/11/2023</t>
+          <t>Fecha de Presentación01/12/2023</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL LA INVESTIGACIÓN, CONSERVACIÓN, PUESTA EN VALOR Y PROMOCIÓN DE LOS SITIOS ARQUEOLÓGICOS DE ALTO DE LA GUITARRA, HUACA DE LOS REYES Y LOS GEOGLIFOS DE LA QUEBRADA DE SANTO DOMINGO, UBICADOS EN EL DISTRITO DE LAREDO, PROVINCIA DE TRUJILLO, DEPARTAMENTO DE LA LIBERTAD</t>
+          <t>TítuloLEY QUE FACULTA A LOS AFILIADOS DE LOS FONDOS PRIVADOS DE PENSIONES EL RETIRO EXTRAORDINARIO DE HASTA 4 UIT</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1805,24 +1805,24 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>AutoresBazán Calderón, Diego Alonso Fernando Gonzales Delgado, Diana Carolina Yarrow Lumbreras, Norma Martina ver más...</t>
+          <t>AutoresCortez Aguirre, Isabel Sánchez Palomino, Roberto Helbert Bazán Narro, Sigrid Tesoro ver más...</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06549/2023-CR</t>
+          <t>Proyecto de Ley 06565/2023-CR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fecha de Presentación29/11/2023</t>
+          <t>Fecha de Presentación01/12/2023</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERÉS NACIONAL LA CREACIÓN DE LA UNIDAD DE FLAGRANCIA EN EL DEPARTAMENTO DE CAJAMARCA</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTICULO 67 Y SE INCORPORA LOS ARTÍCULOS 67-A Y 67-B A LA LEY 28091, LEY DEL SERVICIO DIPLOMÁTICO DE LA REPÚBLICA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1837,24 +1837,24 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>AutoresJulón Irigoín, Elva Edhit Ruíz Rodríguez, Magaly Rosmery Salhuana Cavides, Eduardo ver más...</t>
+          <t>AutoresCerrón Rojas, Waldemar José Palacios Huamán, Margot Taipe Coronado, María Elizabeth ver más...</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06548/2023-CR</t>
+          <t>Proyecto de Ley 06564/2023-CR</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fecha de Presentación29/11/2023</t>
+          <t>Fecha de Presentación01/12/2023</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE CREA EL FONDO DE ESTABILIZACIÓN DEL CANON MINERO Y ESTABLECE MEDIDAS PARA GARANTIZAR SU ASIGNACIÓN Y REDISTRIBUCIÓN EN FAVOR DE LOS GOBIERNOS LOCALES Y REGIONALES</t>
+          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 45 DE LA LEY 30220, LEY UNIVERSITARIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1869,24 +1869,24 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AutoresJulón Irigoín, Elva Edhit Trigozo Reátegui, Cheryl Acuña Peralta, María Grimaneza ver más...</t>
+          <t>AutoresCerrón Rojas, Waldemar José Palacios Huamán, Margot Agüero Gutiérrez, María Antonieta ver más...</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06547/2023-CR</t>
+          <t>Proyecto de Ley 06563/2023-CR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fecha de Presentación29/11/2023</t>
+          <t>Fecha de Presentación01/12/2023</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL DECRETO LEGISLATIVO 1132 QUE APRUEBA LA NUEVA ESTRUCTURA DE INGRESOS APLICABLE AL PERSONAL MILITAR DE LAS FUERZAS ARMADAS Y POLICIAL DE LA POLICÍA NACIONAL DEL PERÚ</t>
+          <t>TítuloLEY QUE ESTABLECE ESPECIFICACIONES PARA CONDUCTORES Y PASAJEROS DE VEHÍCULOS MENORES MOTORIZADOS</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>AutoresCortez Aguirre, Isabel Paredes Piqué, Susel Ana María Echeverría Rodríguez, Hamlet ver más...</t>
+          <t>AutoresBurgos Oliveros, Juan Bartolomé Ugarte Mamani, Jhakeline Katy Medina Minaya, Esdras Ricardo ver más...</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06546/2023-PJ</t>
+          <t>Proyecto de Ley 06562/2023-CR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fecha de Presentación29/11/2023</t>
+          <t>Fecha de Presentación01/12/2023</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA LOS ARTÍCULOS 1 Y 2 DE LA LEY 29497, NUEVA LEY PROCESAL DEL TRABAJO, Y LOS ARTÍCULOS 51 Y 57 DEL TEXTO ÚNICO ORDENADO DE LA LEY ORGÁNICA DEL PODER JUDICIAL, APROBADO POR EL DECRETO SUPREMO N.° 017-93-JUS, EN CUANTO A LA COMPETENCIA POR MATERIA DE LOS JUZGADOS DE PAZ LETRADO LABORALES Y DE LOS JUZGADOS ESPECIALIZADOS DE TRABAJO</t>
+          <t>TítuloLEY QUE DECLARA DE INTERES NACIONAL Y NECESIDAD PÚBLICA LA CONSTRUCCIÓN, IMPLEMENTACIÓN Y EQUIPAMIENTO DE LA RESIDENCIA UNIVERSITARIA PARA ESTUDIANTES, DOCENTES Y ADMINISTRATIVOS EN TODAS LAS UNIVERSIDADES PÚBLICAS DEL PERÚ</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1928,29 +1928,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ProponentePoder Judicial</t>
+          <t>ProponenteCongreso</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Autores</t>
+          <t>AutoresCerrón Rojas, Waldemar José Mita Alanoca, Isaac Palacios Huamán, Margot ver más...</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06545/2023-CR</t>
+          <t>Proyecto de Ley 06561/2023-CR</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fecha de Presentación29/11/2023</t>
+          <t>Fecha de Presentación01/12/2023</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL EL SANEAMIENTO FÍSICO LEGAL DE LA ZONA DENOMINADA CANTAGALLO A FAVOR DE LOS POSESIONARIOS - COMUNIDAD SHIPIBO KONIBO</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL Y NECESIDAD PÚBLICA LA CREACIÓN DEL INSTITUTO DE IDIOMAS PLURINACIONAL DEL PERÚ A NIVEL NACIONAL</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1965,24 +1965,24 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>AutoresCortez Aguirre, Isabel Bazán Narro, Sigrid Tesoro Sánchez Palomino, Roberto Helbert ver más...</t>
+          <t>AutoresCerrón Rojas, Waldemar José Mita Alanoca, Isaac Palacios Huamán, Margot ver más...</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06544/2023-CR</t>
+          <t>Proyecto de Ley 06560/2023-CR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fecha de Presentación28/11/2023</t>
+          <t>Fecha de Presentación01/12/2023</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE PERMITE EL RETIRO EXTRAORDINARIO Y FACULTATIVO DE HASTA CINCO (5) UIT DEL SISTEMA PRIVADO DE ADMINISTRACIÓN DE FONDOS DE PENSIONES — AFP</t>
+          <t>TítuloLEY QUE MODIFICA LOS ARTICULOS 63 Y 65 DE LA LEY 30220, LEY UNIVERSITARIA Y CREA EL VICERRECTORADO DE COOPERACIÓN Y RELACIONES INTERNACIONALES</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1997,24 +1997,24 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>AutoresQuiroz Barboza, Segundo Teodomiro Gutiérrez Ticona, Paul Silvio Tacuri Valdivia, Germán Adolfo ver más...</t>
+          <t>AutoresCerrón Rojas, Waldemar José Palacios Huamán, Margot Mita Alanoca, Isaac ver más...</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06543/2023-CR</t>
+          <t>Proyecto de Ley 06559/2023-CR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fecha de Presentación28/11/2023</t>
+          <t>Fecha de Presentación01/12/2023</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL TEXTO ÚNICO ORDENADO DE LA LEY 30225, LEY DE CONTRATACIONES DEL ESTADO, SOBRE EL IMPEDIMENTO DE LAS PERSONAS JURIDICAS Y PERSONAS NATURALES</t>
+          <t>TítuloLEY QUE DECLARA DE INTERÉS NACIONAL, NECESIDAD Y UTILIDAD PÚBLICA LA CREACIÓN DEL INSTITUTO SUPERIOR TECNOLÓGICO PÚBLICO "SAN ANTONIO", EN EL DISTRITO DE HUARANGO, PROVINCIA DE SAN IGNACIO EN CAJAMARCA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2029,24 +2029,24 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>AutoresPortero López, Hilda Marleny Espinoza Vargas, Jhaec Darwin Aragón Carreño, Luis Ángel ver más...</t>
+          <t>AutoresGonza Castillo, Américo Mita Alanoca, Isaac Montalvo Cubas, Segundo Toribio ver más...</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Proyecto de Ley 06542/2023-CR</t>
+          <t>Proyecto de Ley 06558/2023-CR</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fecha de Presentación28/11/2023</t>
+          <t>Fecha de Presentación01/12/2023</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TítuloLEY QUE MODIFICA EL ARTÍCULO 149 DEL DECRETO LEGISLATIVO 768, CÓDIGO PROCESAL CIVIL</t>
+          <t>TítuloLEY QUE APLICA EL GRILLETE ELECTRÓNICO PARA LA SEMILIBERTAD A LOS ADOLESCENTES INFRACTORES</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>AutoresSoto Reyes, Alejandro Camones Soriano, Lady Mercedes Ruíz Rodríguez, Magaly Rosmery ver más...</t>
+          <t>AutoresUgarte Mamani, Jhakeline Katy Burgos Oliveros, Juan Bartolomé Acuña Peralta, Segundo Héctor ver más...</t>
         </is>
       </c>
     </row>
